--- a/flex/candidates.xlsx
+++ b/flex/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/flex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521DF94C-E454-2E45-8C0B-703B7D73CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C040F42-4096-C742-8F56-0FD2432F67D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24220" yWindow="5680" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="5600" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expression" sheetId="2" r:id="rId1"/>
@@ -2340,10 +2340,14 @@
   <dimension ref="A1:AT39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AT39"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -7815,7 +7819,7 @@
   <dimension ref="B4:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="B4:F19"/>
+      <selection activeCell="C5" sqref="C5:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8131,10 +8135,22 @@
   <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="33.33203125" customWidth="1"/>
+    <col min="41" max="41" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
